--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>919962251412</t>
   </si>
   <si>
     <t>Phone Numbers</t>
-  </si>
-  <si>
-    <t>919962457576</t>
-  </si>
-  <si>
-    <t>917845186305</t>
-  </si>
-  <si>
-    <t>919600025948</t>
   </si>
 </sst>
 </file>
@@ -371,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,17 +385,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,12 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>919962251412</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Phone Numbers</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>9840386597</t>
+  </si>
+  <si>
+    <t>8148981817</t>
+  </si>
+  <si>
+    <t>7305174040</t>
+  </si>
+  <si>
+    <t>9962007474</t>
+  </si>
+  <si>
+    <t>9094299178</t>
+  </si>
+  <si>
+    <t>9840809921</t>
+  </si>
+  <si>
+    <t>9884058428</t>
+  </si>
+  <si>
+    <t>9619647432</t>
+  </si>
+  <si>
+    <t>9524045613</t>
+  </si>
+  <si>
+    <t>9626817324</t>
+  </si>
+  <si>
+    <t>9043607727</t>
+  </si>
+  <si>
+    <t>9750606828</t>
+  </si>
+  <si>
+    <t>9384625673</t>
+  </si>
+  <si>
+    <t>9677111253</t>
+  </si>
+  <si>
+    <t>9030410652</t>
+  </si>
+  <si>
+    <t>8015908073</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 43 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 41 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 40 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 39 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 38 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 37 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 36 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 32 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 31 out of 60 marks. We will help you this week to enable better</t>
+  </si>
+  <si>
+    <t>Your last week exam score is 30 out of 60 marks. We will help you this week to enable better</t>
   </si>
 </sst>
 </file>
@@ -55,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,35 +441,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
